--- a/data/trans_orig/P14A19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A19-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE5F196D-929A-460E-A448-EAEAC86B0EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF81FFF-5F05-4F47-8D4A-649CA7D401BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A6A3784-A09E-450A-BCDE-4437BE44E934}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{231136BB-3DEB-43C0-B9BF-44AF9735F3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="158">
   <si>
     <t>Población que recibe medicación o terapia por varices en las piernas en 2012 (Tasa respuesta: 4,83%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>32,87%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
   </si>
   <si>
     <t>46,99%</t>
   </si>
   <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
   </si>
   <si>
     <t>45,56%</t>
   </si>
   <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>67,13%</t>
   </si>
   <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>53,01%</t>
   </si>
   <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
   </si>
   <si>
     <t>54,44%</t>
   </si>
   <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>32,62%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -201,19 +201,19 @@
     <t>32,78%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
   </si>
   <si>
     <t>41,13%</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -228,73 +228,73 @@
     <t>67,22%</t>
   </si>
   <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>58,87%</t>
   </si>
   <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
   </si>
   <si>
     <t>43,47%</t>
   </si>
   <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
   <si>
     <t>63,8%</t>
   </si>
   <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>56,53%</t>
   </si>
   <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -306,205 +306,211 @@
     <t>42,06%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
   </si>
   <si>
     <t>52,45%</t>
   </si>
   <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
   </si>
   <si>
     <t>57,94%</t>
   </si>
   <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
   </si>
   <si>
     <t>47,55%</t>
   </si>
   <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
   </si>
   <si>
     <t>48,5%</t>
   </si>
   <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
   </si>
   <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
   </si>
   <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
   </si>
   <si>
     <t>51,5%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>74,95%</t>
+    <t>82,0%</t>
   </si>
   <si>
     <t>46,58%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>38,38%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>25,05%</t>
+    <t>18,0%</t>
   </si>
   <si>
     <t>53,42%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>61,62%</t>
   </si>
   <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>51,41%</t>
   </si>
   <si>
-    <t>43,84%</t>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>56,16%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
   </si>
 </sst>
 </file>
@@ -916,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58E10BA-4B2B-4C3B-B720-7CD3E3132E81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD06C80E-351B-4E60-9CA7-9232EC1A1D99}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1568,7 +1574,7 @@
         <v>156</v>
       </c>
       <c r="I14" s="7">
-        <v>169403</v>
+        <v>169404</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1619,7 +1625,7 @@
         <v>278</v>
       </c>
       <c r="I15" s="7">
-        <v>299684</v>
+        <v>299685</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1667,7 +1673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D26B34D-2034-461E-9B4C-F2152BFC27CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E071260-94B7-489F-B3AD-230FA3F37BEA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2277,7 +2283,7 @@
         <v>144</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -2286,13 +2292,13 @@
         <v>134483</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2313,13 @@
         <v>30054</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -2322,13 +2328,13 @@
         <v>106062</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>119</v>
@@ -2337,13 +2343,13 @@
         <v>136116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A19-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF81FFF-5F05-4F47-8D4A-649CA7D401BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12A68727-AACF-4381-8F9D-A8CE14B73275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{231136BB-3DEB-43C0-B9BF-44AF9735F3BA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D87BE562-BCFF-4EEE-8C3F-2111F9350D05}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,28 +75,28 @@
     <t>32,87%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
   </si>
   <si>
     <t>46,99%</t>
   </si>
   <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
   </si>
   <si>
     <t>45,56%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>67,13%</t>
   </si>
   <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>53,01%</t>
   </si>
   <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
   </si>
   <si>
     <t>54,44%</t>
   </si>
   <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>32,62%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -201,19 +201,19 @@
     <t>32,78%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
   </si>
   <si>
     <t>41,13%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -228,187 +228,187 @@
     <t>67,22%</t>
   </si>
   <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
   <si>
     <t>58,87%</t>
   </si>
   <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
   </si>
   <si>
     <t>43,47%</t>
   </si>
   <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>63,8%</t>
   </si>
   <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>56,53%</t>
   </si>
   <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por varices en las piernas en 2015 (Tasa respuesta: 3,61%)</t>
+    <t>Población que recibe medicación o terapia por varices en las piernas en 2016 (Tasa respuesta: 3,61%)</t>
   </si>
   <si>
     <t>42,06%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
   </si>
   <si>
     <t>52,45%</t>
   </si>
   <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
   </si>
   <si>
     <t>57,94%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
   </si>
   <si>
     <t>47,55%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
   </si>
   <si>
     <t>48,5%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
   </si>
   <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
   </si>
   <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
   </si>
   <si>
     <t>51,5%</t>
   </si>
   <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
   </si>
   <si>
     <t>18,1%</t>
@@ -420,19 +420,19 @@
     <t>46,58%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
   </si>
   <si>
     <t>38,38%</t>
   </si>
   <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
   </si>
   <si>
     <t>81,9%</t>
@@ -444,73 +444,73 @@
     <t>53,42%</t>
   </si>
   <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
   </si>
   <si>
     <t>61,62%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
   </si>
   <si>
     <t>51,41%</t>
   </si>
   <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD06C80E-351B-4E60-9CA7-9232EC1A1D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A650B01-C8FF-4D7C-9F40-C79BF15F7C62}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1673,7 +1673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E071260-94B7-489F-B3AD-230FA3F37BEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EEDE59-6E94-4693-88EF-068D05ECC7A5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
